--- a/output/sites/clust_PCs_validity_measures_PS.xlsx
+++ b/output/sites/clust_PCs_validity_measures_PS.xlsx
@@ -404,7 +404,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -422,7 +422,7 @@
         <v>0.625</v>
       </c>
       <c r="G2" t="n">
-        <v>0.601</v>
+        <v>0.595</v>
       </c>
       <c r="H2" t="n">
         <v>1.984</v>
@@ -433,28 +433,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.939</v>
+        <v>0.342</v>
       </c>
       <c r="E3" t="n">
-        <v>0.951</v>
+        <v>0.726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.929</v>
+        <v>0.686</v>
       </c>
       <c r="G3" t="n">
-        <v>0.541</v>
+        <v>0.352</v>
       </c>
       <c r="H3" t="n">
-        <v>2.45</v>
+        <v>2.031</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -486,6 +486,35 @@
         <v>2.451</v>
       </c>
       <c r="I4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.053</v>
+      </c>
+      <c r="I5" t="n">
         <v>6</v>
       </c>
     </row>
